--- a/Digest/SingleVM/Test/Statistics.xlsx
+++ b/Digest/SingleVM/Test/Statistics.xlsx
@@ -64,10 +64,10 @@
     <t>lat_target_end</t>
   </si>
   <si>
-    <t>id_lte_origin</t>
-  </si>
-  <si>
-    <t>id_lte_target</t>
+    <t>id_edge_origin</t>
+  </si>
+  <si>
+    <t>id_edge_target</t>
   </si>
   <si>
     <t>delta_dist_init</t>

--- a/Digest/SingleVM/Test/Statistics.xlsx
+++ b/Digest/SingleVM/Test/Statistics.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>INDEX</t>
   </si>
@@ -109,28 +109,13 @@
     <t>109</t>
   </si>
   <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
     <t>157</t>
   </si>
   <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>234</t>
-  </si>
-  <si>
     <t>319</t>
   </si>
   <si>
     <t>203</t>
-  </si>
-  <si>
-    <t>45</t>
   </si>
 </sst>
 </file>
@@ -488,7 +473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z13"/>
+  <dimension ref="A1:Z7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,10 +585,10 @@
         <v>-8.631807428116645E-05</v>
       </c>
       <c r="I2">
-        <v>-8.631807428116645E-05</v>
+        <v>-0.00373439462784475</v>
       </c>
       <c r="J2">
-        <v>-8.631807428116645E-05</v>
+        <v>-0.005066959111637459</v>
       </c>
       <c r="K2">
         <v>837</v>
@@ -615,13 +600,13 @@
         <v>26.57023321659814</v>
       </c>
       <c r="N2">
-        <v>26.57015861772282</v>
+        <v>26.57166451363896</v>
       </c>
       <c r="O2">
         <v>-26.57014689852386</v>
       </c>
       <c r="P2">
-        <v>-26.57007229964854</v>
+        <v>-26.56793011901111</v>
       </c>
       <c r="Q2" t="s">
         <v>27</v>
@@ -633,10 +618,10 @@
         <v>878.6967922039219</v>
       </c>
       <c r="T2">
-        <v>298.7349794770473</v>
+        <v>-1897.920932351433</v>
       </c>
       <c r="U2">
-        <v>261.2442441219848</v>
+        <v>-2197.820000968639</v>
       </c>
       <c r="V2">
         <v>1406.605710205961</v>
@@ -645,10 +630,10 @@
         <v>-2285.302502409883</v>
       </c>
       <c r="X2">
-        <v>1869.614022745282</v>
+        <v>2976.945323220437</v>
       </c>
       <c r="Y2">
-        <v>-2168.349002222329</v>
+        <v>-1079.024390869004</v>
       </c>
       <c r="Z2">
         <v>2.556297</v>
@@ -680,10 +665,10 @@
         <v>-0.0006904622437247099</v>
       </c>
       <c r="I3">
-        <v>-0.001220325814173862</v>
+        <v>-0.002879111517586352</v>
       </c>
       <c r="J3">
-        <v>-0.002857800615483796</v>
+        <v>-0.002879111517586352</v>
       </c>
       <c r="K3">
         <v>837</v>
@@ -692,16 +677,16 @@
         <v>15.84636737337309</v>
       </c>
       <c r="M3">
-        <v>26.56748309119427</v>
+        <v>26.56735604268218</v>
       </c>
       <c r="N3">
-        <v>26.56756892294824</v>
+        <v>26.5711145739528</v>
       </c>
       <c r="O3">
-        <v>-26.56679262895054</v>
+        <v>-26.56666558043845</v>
       </c>
       <c r="P3">
-        <v>-26.56634859713407</v>
+        <v>-26.56823546243521</v>
       </c>
       <c r="Q3" t="s">
         <v>28</v>
@@ -710,25 +695,25 @@
         <v>29</v>
       </c>
       <c r="S3">
-        <v>-85.2765707442245</v>
+        <v>-177.3893685556054</v>
       </c>
       <c r="T3">
-        <v>-931.9211671197804</v>
+        <v>-1309.641666983701</v>
       </c>
       <c r="U3">
-        <v>-1004.743755641379</v>
+        <v>-1303.999946407299</v>
       </c>
       <c r="V3">
-        <v>968.3670657012597</v>
+        <v>989.6019462481942</v>
       </c>
       <c r="W3">
-        <v>-883.0904949570352</v>
+        <v>-812.2125776925888</v>
       </c>
       <c r="X3">
-        <v>1262.540118134952</v>
+        <v>2545.715673303976</v>
       </c>
       <c r="Y3">
-        <v>-330.6189510151714</v>
+        <v>-1236.074006320275</v>
       </c>
       <c r="Z3">
         <v>2.556297</v>
@@ -760,10 +745,10 @@
         <v>-0.0004881116333592672</v>
       </c>
       <c r="I4">
-        <v>-0.002424233764237727</v>
+        <v>-0.006712194729193044</v>
       </c>
       <c r="J4">
-        <v>-0.002424233764237727</v>
+        <v>-0.006886738961259908</v>
       </c>
       <c r="K4">
         <v>837</v>
@@ -772,16 +757,16 @@
         <v>15.84636737337309</v>
       </c>
       <c r="M4">
-        <v>26.56949857285361</v>
+        <v>26.56952763895934</v>
       </c>
       <c r="N4">
-        <v>26.57060325371658</v>
+        <v>26.57243410268657</v>
       </c>
       <c r="O4">
-        <v>-26.56901046122025</v>
+        <v>-26.56903952732598</v>
       </c>
       <c r="P4">
-        <v>-26.56817901995234</v>
+        <v>-26.56572190795737</v>
       </c>
       <c r="Q4" t="s">
         <v>29</v>
@@ -790,25 +775,25 @@
         <v>30</v>
       </c>
       <c r="S4">
-        <v>-17.95883296470038</v>
+        <v>-126.7999007592625</v>
       </c>
       <c r="T4">
-        <v>-729.8486287030321</v>
+        <v>-3023.333782294349</v>
       </c>
       <c r="U4">
-        <v>-788.7086556487259</v>
+        <v>-3126.978984527701</v>
       </c>
       <c r="V4">
-        <v>1779.718413392205</v>
+        <v>1844.811300619412</v>
       </c>
       <c r="W4">
-        <v>-1761.759580427504</v>
+        <v>-1718.011399860149</v>
       </c>
       <c r="X4">
-        <v>2278.898165688277</v>
+        <v>3304.152872357923</v>
       </c>
       <c r="Y4">
-        <v>-1549.049536985245</v>
+        <v>-280.8190900635739</v>
       </c>
       <c r="Z4">
         <v>2.556297</v>
@@ -837,13 +822,13 @@
         <v>695</v>
       </c>
       <c r="H5">
-        <v>-0.0006530475317809703</v>
+        <v>-0.0006697301510349973</v>
       </c>
       <c r="I5">
-        <v>-0.0008228191109829197</v>
+        <v>-0.003681245661468324</v>
       </c>
       <c r="J5">
-        <v>-0.0008228191109829197</v>
+        <v>-0.003669931587456432</v>
       </c>
       <c r="K5">
         <v>837</v>
@@ -852,16 +837,16 @@
         <v>15.84636737337309</v>
       </c>
       <c r="M5">
-        <v>26.56811125997544</v>
+        <v>26.56892516851693</v>
       </c>
       <c r="N5">
-        <v>26.56696703790236</v>
+        <v>26.57362577851246</v>
       </c>
       <c r="O5">
-        <v>-26.56745821244366</v>
+        <v>-26.56825543836589</v>
       </c>
       <c r="P5">
-        <v>-26.56614421879138</v>
+        <v>-26.56994453285099</v>
       </c>
       <c r="Q5" t="s">
         <v>30</v>
@@ -870,25 +855,25 @@
         <v>31</v>
       </c>
       <c r="S5">
-        <v>-382.72088230438</v>
+        <v>107.4149580736498</v>
       </c>
       <c r="T5">
-        <v>-403.2843485364912</v>
+        <v>-1655.338189153611</v>
       </c>
       <c r="U5">
-        <v>-383.7389570367461</v>
+        <v>-1651.141033840751</v>
       </c>
       <c r="V5">
-        <v>1522.551605582242</v>
+        <v>808.7352899127407</v>
       </c>
       <c r="W5">
-        <v>-1139.830723277862</v>
+        <v>-916.1502479863905</v>
       </c>
       <c r="X5">
-        <v>1064.862958142947</v>
+        <v>4012.583731184206</v>
       </c>
       <c r="Y5">
-        <v>-661.5786096064563</v>
+        <v>-2357.245542030595</v>
       </c>
       <c r="Z5">
         <v>2.556297</v>
@@ -917,13 +902,13 @@
         <v>695</v>
       </c>
       <c r="H6">
-        <v>-0.0004265152895186475</v>
+        <v>-0.004651195799606711</v>
       </c>
       <c r="I6">
-        <v>-0.0002788476515505067</v>
+        <v>-0.006931264970358342</v>
       </c>
       <c r="J6">
-        <v>-0.0003683852778095797</v>
+        <v>-0.006931264970358342</v>
       </c>
       <c r="K6">
         <v>837</v>
@@ -932,43 +917,43 @@
         <v>15.84636737337309</v>
       </c>
       <c r="M6">
-        <v>26.56654705888137</v>
+        <v>26.57069373660987</v>
       </c>
       <c r="N6">
-        <v>26.56581973167719</v>
+        <v>26.5769438594094</v>
       </c>
       <c r="O6">
-        <v>-26.56612054359185</v>
+        <v>-26.56604254081026</v>
       </c>
       <c r="P6">
-        <v>-26.56554088402564</v>
+        <v>-26.57001259443904</v>
       </c>
       <c r="Q6" t="s">
         <v>31</v>
       </c>
       <c r="R6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="S6">
-        <v>34.88790161197119</v>
+        <v>-2277.87266770936</v>
       </c>
       <c r="T6">
-        <v>-271.3780408684744</v>
+        <v>-2909.460156179553</v>
       </c>
       <c r="U6">
-        <v>-305.4544770711389</v>
+        <v>-2912.742953022574</v>
       </c>
       <c r="V6">
-        <v>526.8103705905825</v>
+        <v>2758.20689773608</v>
       </c>
       <c r="W6">
-        <v>-561.6982722025537</v>
+        <v>-480.3342300267189</v>
       </c>
       <c r="X6">
-        <v>581.7863530916738</v>
+        <v>4430.709093724094</v>
       </c>
       <c r="Y6">
-        <v>-310.4083122231995</v>
+        <v>-1521.248937544541</v>
       </c>
       <c r="Z6">
         <v>2.556297</v>
@@ -997,13 +982,13 @@
         <v>695</v>
       </c>
       <c r="H7">
-        <v>-0.0003927817562825453</v>
+        <v>-0.001319163183257643</v>
       </c>
       <c r="I7">
-        <v>0.000130281506699248</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.000130281506699248</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>837</v>
@@ -1012,525 +997,45 @@
         <v>15.84636737337309</v>
       </c>
       <c r="M7">
-        <v>26.5655213338655</v>
+        <v>26.56999390988072</v>
       </c>
       <c r="N7">
-        <v>26.56606429964217</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>-26.56512855210922</v>
+        <v>-26.56867474669746</v>
       </c>
       <c r="P7">
-        <v>-26.56619458114887</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S7">
-        <v>-105.8303478644728</v>
+        <v>21.38083882535739</v>
       </c>
       <c r="T7">
-        <v>-140.6011016395285</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>-135.7743071838371</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>288.7996066275143</v>
+        <v>1494.483495789896</v>
       </c>
       <c r="W7">
-        <v>-182.9692587630414</v>
+        <v>-1515.864334615253</v>
       </c>
       <c r="X7">
-        <v>572.6882281388379</v>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <v>-432.0871264993094</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>2.556297</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8">
-        <v>1463740276</v>
-      </c>
-      <c r="D8">
-        <v>7</v>
-      </c>
-      <c r="E8">
-        <v>24</v>
-      </c>
-      <c r="F8">
-        <v>26</v>
-      </c>
-      <c r="G8">
-        <v>695</v>
-      </c>
-      <c r="H8">
-        <v>-8.575509275488002E-05</v>
-      </c>
-      <c r="I8">
-        <v>-0.003040071371867015</v>
-      </c>
-      <c r="J8">
-        <v>-0.003040071371867015</v>
-      </c>
-      <c r="K8">
-        <v>837</v>
-      </c>
-      <c r="L8">
-        <v>15.84636737337309</v>
-      </c>
-      <c r="M8">
-        <v>26.56834119345865</v>
-      </c>
-      <c r="N8">
-        <v>26.56827295123301</v>
-      </c>
-      <c r="O8">
-        <v>-26.56825543836589</v>
-      </c>
-      <c r="P8">
-        <v>-26.56523287986114</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>32</v>
-      </c>
-      <c r="R8" t="s">
-        <v>33</v>
-      </c>
-      <c r="S8">
-        <v>228.5026563633486</v>
-      </c>
-      <c r="T8">
-        <v>-1114.104704788772</v>
-      </c>
-      <c r="U8">
-        <v>-1208.97338760702</v>
-      </c>
-      <c r="V8">
-        <v>687.6475916230419</v>
-      </c>
-      <c r="W8">
-        <v>-916.1502479863905</v>
-      </c>
-      <c r="X8">
-        <v>1380.008646160029</v>
-      </c>
-      <c r="Y8">
-        <v>-265.9039413712572</v>
-      </c>
-      <c r="Z8">
-        <v>2.556297</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9">
-        <v>1463740276</v>
-      </c>
-      <c r="D9">
-        <v>8</v>
-      </c>
-      <c r="E9">
-        <v>24</v>
-      </c>
-      <c r="F9">
-        <v>26</v>
-      </c>
-      <c r="G9">
-        <v>695</v>
-      </c>
-      <c r="H9">
-        <v>-0.0005760232838483148</v>
-      </c>
-      <c r="I9">
-        <v>-0.002543435737432986</v>
-      </c>
-      <c r="J9">
-        <v>-0.003027602953768138</v>
-      </c>
-      <c r="K9">
-        <v>837</v>
-      </c>
-      <c r="L9">
-        <v>15.84636737337309</v>
-      </c>
-      <c r="M9">
-        <v>26.56711865236764</v>
-      </c>
-      <c r="N9">
-        <v>26.5681736590872</v>
-      </c>
-      <c r="O9">
-        <v>-26.56654262908379</v>
-      </c>
-      <c r="P9">
-        <v>-26.56563022334977</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R9" t="s">
-        <v>34</v>
-      </c>
-      <c r="S9">
-        <v>-352.7012452792295</v>
-      </c>
-      <c r="T9">
-        <v>-1288.773429642436</v>
-      </c>
-      <c r="U9">
-        <v>-1306.116689190496</v>
-      </c>
-      <c r="V9">
-        <v>923.0041015486039</v>
-      </c>
-      <c r="W9">
-        <v>-570.3028562693744</v>
-      </c>
-      <c r="X9">
-        <v>1583.397533095537</v>
-      </c>
-      <c r="Y9">
-        <v>-294.624103453101</v>
-      </c>
-      <c r="Z9">
-        <v>2.556297</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10">
-        <v>1463740276</v>
-      </c>
-      <c r="D10">
-        <v>9</v>
-      </c>
-      <c r="E10">
-        <v>24</v>
-      </c>
-      <c r="F10">
-        <v>26</v>
-      </c>
-      <c r="G10">
-        <v>695</v>
-      </c>
-      <c r="H10">
-        <v>-0.0001207930252711265</v>
-      </c>
-      <c r="I10">
-        <v>-0.0007037457159704275</v>
-      </c>
-      <c r="J10">
-        <v>-0.0007037457159704275</v>
-      </c>
-      <c r="K10">
-        <v>837</v>
-      </c>
-      <c r="L10">
-        <v>15.84636737337309</v>
-      </c>
-      <c r="M10">
-        <v>26.56620201551081</v>
-      </c>
-      <c r="N10">
-        <v>26.56785805707902</v>
-      </c>
-      <c r="O10">
-        <v>-26.56608122248554</v>
-      </c>
-      <c r="P10">
-        <v>-26.56715431136305</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>34</v>
-      </c>
-      <c r="R10" t="s">
-        <v>35</v>
-      </c>
-      <c r="S10">
-        <v>65.77583853281317</v>
-      </c>
-      <c r="T10">
-        <v>-304.2142755543904</v>
-      </c>
-      <c r="U10">
-        <v>-315.5341905942031</v>
-      </c>
-      <c r="V10">
-        <v>589.6532168377653</v>
-      </c>
-      <c r="W10">
-        <v>-655.4290553705785</v>
-      </c>
-      <c r="X10">
-        <v>1244.368462549163</v>
-      </c>
-      <c r="Y10">
-        <v>-940.1541869947722</v>
-      </c>
-      <c r="Z10">
-        <v>2.556297</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11">
-        <v>1463740276</v>
-      </c>
-      <c r="D11">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <v>24</v>
-      </c>
-      <c r="F11">
-        <v>26</v>
-      </c>
-      <c r="G11">
-        <v>695</v>
-      </c>
-      <c r="H11">
-        <v>-0.0010362999794431</v>
-      </c>
-      <c r="I11">
-        <v>-0.003414000463301647</v>
-      </c>
-      <c r="J11">
-        <v>-0.003414000463301647</v>
-      </c>
-      <c r="K11">
-        <v>837</v>
-      </c>
-      <c r="L11">
-        <v>15.84636737337309</v>
-      </c>
-      <c r="M11">
-        <v>26.5668909967359</v>
-      </c>
-      <c r="N11">
-        <v>26.56807881809663</v>
-      </c>
-      <c r="O11">
-        <v>-26.56585469675646</v>
-      </c>
-      <c r="P11">
-        <v>-26.56466481763333</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>35</v>
-      </c>
-      <c r="R11" t="s">
-        <v>36</v>
-      </c>
-      <c r="S11">
-        <v>-390.4471061319036</v>
-      </c>
-      <c r="T11">
-        <v>-1513.78783588181</v>
-      </c>
-      <c r="U11">
-        <v>-1521.091291057575</v>
-      </c>
-      <c r="V11">
-        <v>1002.873742848912</v>
-      </c>
-      <c r="W11">
-        <v>-612.4266367170083</v>
-      </c>
-      <c r="X11">
-        <v>1554.63450463002</v>
-      </c>
-      <c r="Y11">
-        <v>-40.84666874820962</v>
-      </c>
-      <c r="Z11">
-        <v>2.556297</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12">
-        <v>1463740276</v>
-      </c>
-      <c r="D12">
-        <v>11</v>
-      </c>
-      <c r="E12">
-        <v>24</v>
-      </c>
-      <c r="F12">
-        <v>26</v>
-      </c>
-      <c r="G12">
-        <v>695</v>
-      </c>
-      <c r="H12">
-        <v>-0.002013295035034446</v>
-      </c>
-      <c r="I12">
-        <v>-0.0012854624193821</v>
-      </c>
-      <c r="J12">
-        <v>-0.0012854624193821</v>
-      </c>
-      <c r="K12">
-        <v>837</v>
-      </c>
-      <c r="L12">
-        <v>15.84636737337309</v>
-      </c>
-      <c r="M12">
-        <v>26.56845346170575</v>
-      </c>
-      <c r="N12">
-        <v>26.56838648766279</v>
-      </c>
-      <c r="O12">
-        <v>-26.56644016667072</v>
-      </c>
-      <c r="P12">
-        <v>-26.56710102524341</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>36</v>
-      </c>
-      <c r="R12" t="s">
-        <v>37</v>
-      </c>
-      <c r="S12">
-        <v>-349.8654270795929</v>
-      </c>
-      <c r="T12">
-        <v>-430.5260395593946</v>
-      </c>
-      <c r="U12">
-        <v>-399.5800757833474</v>
-      </c>
-      <c r="V12">
-        <v>1077.844426335002</v>
-      </c>
-      <c r="W12">
-        <v>-727.9789992554096</v>
-      </c>
-      <c r="X12">
-        <v>1457.592265517509</v>
-      </c>
-      <c r="Y12">
-        <v>-1027.066225958115</v>
-      </c>
-      <c r="Z12">
-        <v>2.556297</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13">
-        <v>1463740276</v>
-      </c>
-      <c r="D13">
-        <v>12</v>
-      </c>
-      <c r="E13">
-        <v>24</v>
-      </c>
-      <c r="F13">
-        <v>26</v>
-      </c>
-      <c r="G13">
-        <v>695</v>
-      </c>
-      <c r="H13">
-        <v>-0.0004237368593607016</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>837</v>
-      </c>
-      <c r="L13">
-        <v>15.84636737337309</v>
-      </c>
-      <c r="M13">
-        <v>26.56871323178727</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>-26.56828949492791</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>37</v>
-      </c>
-      <c r="R13" t="s">
-        <v>38</v>
-      </c>
-      <c r="S13">
-        <v>-235.872427246137</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>1409.489617607861</v>
-      </c>
-      <c r="W13">
-        <v>-1173.617190361724</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="Z13">
         <v>2.556297</v>
       </c>
     </row>
